--- a/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 днрсч от филиала нов 26,10,23.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 днрсч от филиала нов 26,10,23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,10,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\25,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D2B96-48F9-42B0-9B49-1EFBFF193CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D82F4B9-C2C7-4646-98DA-CFCDBD740A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8347,9 +8347,9 @@
   </sheetPr>
   <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
